--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,6 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H2">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.174733</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N2">
-        <v>0.524199</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O2">
-        <v>0.05882867859784574</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P2">
-        <v>0.05882867859784573</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q2">
-        <v>0.05728097206000001</v>
+        <v>0.2374852601157778</v>
       </c>
       <c r="R2">
-        <v>0.5155287485400001</v>
+        <v>2.137367341042</v>
       </c>
       <c r="S2">
-        <v>0.0005616762744911577</v>
+        <v>0.004010376128847273</v>
       </c>
       <c r="T2">
-        <v>0.0005616762744911576</v>
+        <v>0.004010376128847273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H3">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +623,22 @@
         <v>1.448557</v>
       </c>
       <c r="O3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q3">
-        <v>0.1582886519133334</v>
+        <v>0.4963602883091111</v>
       </c>
       <c r="R3">
-        <v>1.42459786722</v>
+        <v>4.467242594782</v>
       </c>
       <c r="S3">
-        <v>0.00155212066247377</v>
+        <v>0.008381957897396094</v>
       </c>
       <c r="T3">
-        <v>0.00155212066247377</v>
+        <v>0.008381957897396094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H4">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I4">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J4">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.28034</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N4">
-        <v>6.841019999999999</v>
+        <v>2.835181</v>
       </c>
       <c r="O4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q4">
-        <v>0.7475410588000001</v>
+        <v>0.9714987111784446</v>
       </c>
       <c r="R4">
-        <v>6.7278695292</v>
+        <v>8.743488400606001</v>
       </c>
       <c r="S4">
-        <v>0.007330114378927657</v>
+        <v>0.01640554550045139</v>
       </c>
       <c r="T4">
-        <v>0.007330114378927657</v>
+        <v>0.01640554550045138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,61 +723,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H5">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I5">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J5">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02610233333333334</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N5">
-        <v>0.078307</v>
+        <v>0.077791</v>
       </c>
       <c r="O5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q5">
-        <v>0.008556866913333336</v>
+        <v>0.02665574305177778</v>
       </c>
       <c r="R5">
-        <v>0.07701180222000001</v>
+        <v>0.239901687466</v>
       </c>
       <c r="S5">
-        <v>8.390550921802422E-05</v>
+        <v>0.0004501313284850644</v>
       </c>
       <c r="T5">
-        <v>8.390550921802422E-05</v>
+        <v>0.0004501313284850644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3278200000000001</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H6">
-        <v>0.9834600000000001</v>
+        <v>100.554517</v>
       </c>
       <c r="I6">
-        <v>0.009547660900745198</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J6">
-        <v>0.009547660900745198</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.006173333333333333</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N6">
-        <v>0.01852</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O6">
-        <v>0.002078422750963094</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P6">
-        <v>0.002078422750963094</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q6">
-        <v>0.002023742133333333</v>
+        <v>7.743446381515445</v>
       </c>
       <c r="R6">
-        <v>0.0182136792</v>
+        <v>69.69101743363902</v>
       </c>
       <c r="S6">
-        <v>1.984407563458961E-05</v>
+        <v>0.1307623576650566</v>
       </c>
       <c r="T6">
-        <v>1.984407563458961E-05</v>
+        <v>0.1307623576650566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +853,10 @@
         <v>100.554517</v>
       </c>
       <c r="I7">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J7">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.174733</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N7">
-        <v>0.524199</v>
+        <v>1.448557</v>
       </c>
       <c r="O7">
-        <v>0.05882867859784574</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P7">
-        <v>0.05882867859784573</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q7">
-        <v>5.856730806320333</v>
+        <v>16.18432772021878</v>
       </c>
       <c r="R7">
-        <v>52.710577256883</v>
+        <v>145.658949481969</v>
       </c>
       <c r="S7">
-        <v>0.05742896151528051</v>
+        <v>0.2733021894452071</v>
       </c>
       <c r="T7">
-        <v>0.05742896151528051</v>
+        <v>0.2733021894452071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +915,10 @@
         <v>100.554517</v>
       </c>
       <c r="I8">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J8">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4828523333333334</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N8">
-        <v>1.448557</v>
+        <v>2.835181</v>
       </c>
       <c r="O8">
-        <v>0.1625655412995058</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P8">
-        <v>0.1625655412995058</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q8">
-        <v>16.18432772021878</v>
+        <v>31.67669511806412</v>
       </c>
       <c r="R8">
-        <v>145.658949481969</v>
+        <v>285.0902560625771</v>
       </c>
       <c r="S8">
-        <v>0.1586976018757956</v>
+        <v>0.5349193540699136</v>
       </c>
       <c r="T8">
-        <v>0.1586976018757957</v>
+        <v>0.5349193540699135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,54 +977,54 @@
         <v>100.554517</v>
       </c>
       <c r="I9">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J9">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.28034</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N9">
-        <v>6.841019999999999</v>
+        <v>0.077791</v>
       </c>
       <c r="O9">
-        <v>0.7677392876778373</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P9">
-        <v>0.7677392876778373</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q9">
-        <v>76.43282909859333</v>
+        <v>0.8691373813274444</v>
       </c>
       <c r="R9">
-        <v>687.8954618873399</v>
+        <v>7.822236431947</v>
       </c>
       <c r="S9">
-        <v>0.7494723841618626</v>
+        <v>0.01467698586878674</v>
       </c>
       <c r="T9">
-        <v>0.7494723841618627</v>
+        <v>0.01467698586878673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1033,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.51817233333333</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H10">
-        <v>100.554517</v>
+        <v>1.802095</v>
       </c>
       <c r="I10">
-        <v>0.9762068923537492</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J10">
-        <v>0.9762068923537494</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02610233333333334</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N10">
-        <v>0.078307</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O10">
-        <v>0.008788069673848112</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P10">
-        <v>0.008788069673848112</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q10">
-        <v>0.8749025069687778</v>
+        <v>0.1387747305961111</v>
       </c>
       <c r="R10">
-        <v>7.874122562719</v>
+        <v>1.248972575365</v>
       </c>
       <c r="S10">
-        <v>0.008578974186095491</v>
+        <v>0.00234346698653438</v>
       </c>
       <c r="T10">
-        <v>0.008578974186095493</v>
+        <v>0.00234346698653438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.51817233333333</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H11">
-        <v>100.554517</v>
+        <v>1.802095</v>
       </c>
       <c r="I11">
-        <v>0.9762068923537492</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J11">
-        <v>0.9762068923537494</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.006173333333333333</v>
+        <v>0.4828523333333334</v>
       </c>
       <c r="N11">
-        <v>0.01852</v>
+        <v>1.448557</v>
       </c>
       <c r="O11">
-        <v>0.002078422750963094</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P11">
-        <v>0.002078422750963094</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q11">
-        <v>0.2069188505377778</v>
+        <v>0.2900485918794445</v>
       </c>
       <c r="R11">
-        <v>1.86226965484</v>
+        <v>2.610437326915</v>
       </c>
       <c r="S11">
-        <v>0.002028970614715013</v>
+        <v>0.004898004821486642</v>
       </c>
       <c r="T11">
-        <v>0.002028970614715013</v>
+        <v>0.004898004821486642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H12">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I12">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J12">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.174733</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N12">
-        <v>0.524199</v>
+        <v>2.835181</v>
       </c>
       <c r="O12">
-        <v>0.05882867859784574</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P12">
-        <v>0.05882867859784573</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q12">
-        <v>0.004132260717</v>
+        <v>0.5676961671327779</v>
       </c>
       <c r="R12">
-        <v>0.037190346453</v>
+        <v>5.109265504195001</v>
       </c>
       <c r="S12">
-        <v>4.051943815338108E-05</v>
+        <v>0.009586595631229784</v>
       </c>
       <c r="T12">
-        <v>4.051943815338107E-05</v>
+        <v>0.009586595631229782</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,557 +1204,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6006983333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.802095</v>
+      </c>
+      <c r="I13">
+        <v>0.01709110209585615</v>
+      </c>
+      <c r="J13">
+        <v>0.01709110209585615</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.023649</v>
-      </c>
-      <c r="H13">
-        <v>0.070947</v>
-      </c>
-      <c r="I13">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J13">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.4828523333333334</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N13">
-        <v>1.448557</v>
+        <v>0.077791</v>
       </c>
       <c r="O13">
-        <v>0.1625655412995058</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P13">
-        <v>0.1625655412995058</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q13">
-        <v>0.011418974831</v>
+        <v>0.01557630801611111</v>
       </c>
       <c r="R13">
-        <v>0.102770773479</v>
+        <v>0.140186772145</v>
       </c>
       <c r="S13">
-        <v>0.0001119702932915691</v>
+        <v>0.000263034656605344</v>
       </c>
       <c r="T13">
-        <v>0.0001119702932915691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.023649</v>
-      </c>
-      <c r="H14">
-        <v>0.070947</v>
-      </c>
-      <c r="I14">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J14">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.28034</v>
-      </c>
-      <c r="N14">
-        <v>6.841019999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="P14">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="Q14">
-        <v>0.05392776066</v>
-      </c>
-      <c r="R14">
-        <v>0.4853498459399999</v>
-      </c>
-      <c r="S14">
-        <v>0.0005287959091796111</v>
-      </c>
-      <c r="T14">
-        <v>0.0005287959091796111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.023649</v>
-      </c>
-      <c r="H15">
-        <v>0.070947</v>
-      </c>
-      <c r="I15">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J15">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.02610233333333334</v>
-      </c>
-      <c r="N15">
-        <v>0.078307</v>
-      </c>
-      <c r="O15">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="P15">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="Q15">
-        <v>0.000617294081</v>
-      </c>
-      <c r="R15">
-        <v>0.005555646729</v>
-      </c>
-      <c r="S15">
-        <v>6.052960122924332E-06</v>
-      </c>
-      <c r="T15">
-        <v>6.052960122924332E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.023649</v>
-      </c>
-      <c r="H16">
-        <v>0.070947</v>
-      </c>
-      <c r="I16">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="J16">
-        <v>0.0006887701563105459</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.006173333333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.01852</v>
-      </c>
-      <c r="O16">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="P16">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="Q16">
-        <v>0.00014599316</v>
-      </c>
-      <c r="R16">
-        <v>0.00131393844</v>
-      </c>
-      <c r="S16">
-        <v>1.431555563060245E-06</v>
-      </c>
-      <c r="T16">
-        <v>1.431555563060245E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H17">
-        <v>1.39641</v>
-      </c>
-      <c r="I17">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J17">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.174733</v>
-      </c>
-      <c r="N17">
-        <v>0.524199</v>
-      </c>
-      <c r="O17">
-        <v>0.05882867859784574</v>
-      </c>
-      <c r="P17">
-        <v>0.05882867859784573</v>
-      </c>
-      <c r="Q17">
-        <v>0.08133296951000001</v>
-      </c>
-      <c r="R17">
-        <v>0.7319967255900001</v>
-      </c>
-      <c r="S17">
-        <v>0.0007975213699206856</v>
-      </c>
-      <c r="T17">
-        <v>0.0007975213699206856</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H18">
-        <v>1.39641</v>
-      </c>
-      <c r="I18">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J18">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.4828523333333334</v>
-      </c>
-      <c r="N18">
-        <v>1.448557</v>
-      </c>
-      <c r="O18">
-        <v>0.1625655412995058</v>
-      </c>
-      <c r="P18">
-        <v>0.1625655412995058</v>
-      </c>
-      <c r="Q18">
-        <v>0.2247532755966667</v>
-      </c>
-      <c r="R18">
-        <v>2.022779480370001</v>
-      </c>
-      <c r="S18">
-        <v>0.002203848467944804</v>
-      </c>
-      <c r="T18">
-        <v>0.002203848467944805</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H19">
-        <v>1.39641</v>
-      </c>
-      <c r="I19">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J19">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.28034</v>
-      </c>
-      <c r="N19">
-        <v>6.841019999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="P19">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="Q19">
-        <v>1.0614298598</v>
-      </c>
-      <c r="R19">
-        <v>9.552868738200001</v>
-      </c>
-      <c r="S19">
-        <v>0.01040799322786729</v>
-      </c>
-      <c r="T19">
-        <v>0.0104079932278673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.39641</v>
-      </c>
-      <c r="I20">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J20">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.02610233333333334</v>
-      </c>
-      <c r="N20">
-        <v>0.078307</v>
-      </c>
-      <c r="O20">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="P20">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="Q20">
-        <v>0.01214985309666667</v>
-      </c>
-      <c r="R20">
-        <v>0.10934867787</v>
-      </c>
-      <c r="S20">
-        <v>0.0001191370184116702</v>
-      </c>
-      <c r="T20">
-        <v>0.0001191370184116702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H21">
-        <v>1.39641</v>
-      </c>
-      <c r="I21">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J21">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.006173333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.01852</v>
-      </c>
-      <c r="O21">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="P21">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="Q21">
-        <v>0.002873501466666667</v>
-      </c>
-      <c r="R21">
-        <v>0.0258615132</v>
-      </c>
-      <c r="S21">
-        <v>2.817650505043141E-05</v>
-      </c>
-      <c r="T21">
-        <v>2.817650505043141E-05</v>
+        <v>0.000263034656605344</v>
       </c>
     </row>
   </sheetData>
